--- a/backend/media/update/xxx.xlsx
+++ b/backend/media/update/xxx.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,21 +488,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dfsdsfd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>field-list</t>
-        </is>
-      </c>
+          <t>what_is_your_name_</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -514,25 +516,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>select_one 3TuIdXr</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dfsdsfd_header</t>
+          <t>what_is_your_age_</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dfsdsfd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
+          <t>What is your age?</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -544,27 +544,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>select_one 3TuIdXr</t>
+          <t>select_one</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sdfsfdsfd</t>
+          <t>this_is_sellect_onme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sdfsfdsfd</t>
+          <t>THis is sellect onme</t>
         </is>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -572,188 +568,6 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>select_one 3TuIdXr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>${sdfsdf} != ${sdfsfdsfd}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>select_one 3TuIdXr</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sfdsdf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sfdsdf</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>${sfdsdf} != ${sdfsfdsfd} and ${sfdsdf} != ${sdfsdf}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdfsdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sdfsdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>select_one WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>sdffsd_sdf_dsdfsd_fsd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sdffsd sdf dsdfsd fsd</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>sfd</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -784,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,176 +623,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3TuIdXr</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>option_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Option 1dsfsfd</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3TuIdXr</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>option_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Option 2sdfsfdfsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3TuIdXr</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>option_3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>option_1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sdfOption 1fsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>option_2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Option 2fs</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>option_3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sfdsdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>option_4</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sfdsfd</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>option_5</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sfdsdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>option_6</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sdfsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>WyXZiTb</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>option_7</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>erwer</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
